--- a/xlsx_archives/Products.xlsx
+++ b/xlsx_archives/Products.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Smartphone Galaxy A22</t>
+          <t>Smartphone Galaxy A04e</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.349,01</t>
+          <t>854.91</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Smartphone Multi G Max 2</t>
+          <t>Smartphone Galaxy A22</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>971,91</t>
+          <t>1349.01</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>809,91</t>
+          <t>971.91</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Smartphone Multi G 2</t>
+          <t>Smartphone Multi G Max 2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>728,91</t>
+          <t>809.91</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>809,91</t>
+          <t>809.91</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Smartphone Nokia G21 Android 11</t>
+          <t>Smartphone Multi F</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.748,90</t>
+          <t>533.61</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Smartphone Multi E P9128</t>
+          <t>Smartphone Multi G 2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>539,10</t>
+          <t>728.91</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Smartphone Multi F Pro</t>
+          <t>Smartphone Multilaser G 32gb 5mp 5.5PT P9132 Multi CX 1 UN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>533,61</t>
+          <t>614.61</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Smartphone Multi F</t>
+          <t>Smartphone Nokia G21 Android 11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>533,61</t>
+          <t>1748.90</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Smartphone Multi E Lite</t>
+          <t>Smartphone Multi F Pro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>404,01</t>
+          <t>533.61</t>
         </is>
       </c>
     </row>

--- a/xlsx_archives/Products.xlsx
+++ b/xlsx_archives/Products.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Smartphone Galaxy A22</t>
+          <t>Smartphone Multi G Max 2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.349,01</t>
+          <t>971,91</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Smartphone Multi G Max 2</t>
+          <t>Smartphone Multi F</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>971,91</t>
+          <t>533,61</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Smartphone Multi G Max 2</t>
+          <t>Smartphone Galaxy A04e</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>809,91</t>
+          <t>854,91</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Smartphone Multi G 2</t>
+          <t>Smartphone Multi G Max 2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>728,91</t>
+          <t>809,91</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Smartphone Nokia G21 Android 11</t>
+          <t>Smartphone Multi E P9128</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.748,90</t>
+          <t>539,10</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Smartphone Multi E P9128</t>
+          <t>Smartphone Multi G 2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>539,10</t>
+          <t>728,91</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Smartphone Multi F Pro</t>
+          <t>Smartphone Multi G</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>533,61</t>
+          <t>614,61</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Smartphone Multi F</t>
+          <t>Smartphone Multilaser G 32gb 5mp 5.5PT P9132 Multi CX 1 UN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>533,61</t>
+          <t>614,61</t>
         </is>
       </c>
     </row>
